--- a/db/import/contact_emails.xlsx
+++ b/db/import/contact_emails.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="184">
   <si>
     <t>account</t>
   </si>
@@ -31,16 +31,563 @@
   </si>
   <si>
     <t>val</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>weldonwelding@bellsouth.net</t>
+  </si>
+  <si>
+    <t>adam.taylor@grahamcompanies.us</t>
+  </si>
+  <si>
+    <t>ryanb@bergerandco.com</t>
+  </si>
+  <si>
+    <t>timothy.wright@kiewit.com</t>
+  </si>
+  <si>
+    <t>jmcintosh@semaconstruction.com</t>
+  </si>
+  <si>
+    <t>brian@cbpinc-ga.com</t>
+  </si>
+  <si>
+    <t>todd_albanese@kellytractor.com</t>
+  </si>
+  <si>
+    <t>davem@jr-davis.com</t>
+  </si>
+  <si>
+    <t>fwhite@rangerconstruction.com</t>
+  </si>
+  <si>
+    <t>jmartin@bulhed.com</t>
+  </si>
+  <si>
+    <t>pt@thesnc.com</t>
+  </si>
+  <si>
+    <t>toddcowan@thompsontractor.com</t>
+  </si>
+  <si>
+    <t>adamjones@thompsontractor.com</t>
+  </si>
+  <si>
+    <t>chernandez@parkerinternational.com</t>
+  </si>
+  <si>
+    <t>dleone@fau.edu</t>
+  </si>
+  <si>
+    <t>lance.brown@kiewit.com</t>
+  </si>
+  <si>
+    <t>jzabron@argos-us.com</t>
+  </si>
+  <si>
+    <t>bob.porter@nortrax.com</t>
+  </si>
+  <si>
+    <t>robertblack1@bellsouth.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tmmalchak@laneconstruct.com</t>
+  </si>
+  <si>
+    <t>groberts@cwrcontracting.com</t>
+  </si>
+  <si>
+    <t>rick@starintermodal.com</t>
+  </si>
+  <si>
+    <t>ddf@polaris-survey.com</t>
+  </si>
+  <si>
+    <t>wclark@downstreamcasino.com</t>
+  </si>
+  <si>
+    <t>martinpaving@aol.com</t>
+  </si>
+  <si>
+    <t>edporter@barcoduval.com</t>
+  </si>
+  <si>
+    <t>charliestevens@thompsontractor.com</t>
+  </si>
+  <si>
+    <t>rduke@plateauexcavation.com</t>
+  </si>
+  <si>
+    <t>kroberts@pigeon-roberts.com</t>
+  </si>
+  <si>
+    <t>holmes2inc@aol.com</t>
+  </si>
+  <si>
+    <t>mbass@raineyconstruction.com</t>
+  </si>
+  <si>
+    <t>nhaddon@mtacfl.com</t>
+  </si>
+  <si>
+    <t>geofla600@aol.com</t>
+  </si>
+  <si>
+    <t>info@rrulewich.com</t>
+  </si>
+  <si>
+    <t>shsulick@hotmail.com</t>
+  </si>
+  <si>
+    <t>kmyers@altoconstruction.com</t>
+  </si>
+  <si>
+    <t>r_pichan@yahoo.com</t>
+  </si>
+  <si>
+    <t>cesarrosero@watercress.com</t>
+  </si>
+  <si>
+    <t>linroberts@thompsontractor.com</t>
+  </si>
+  <si>
+    <t>john.pippin@shawgrp.com</t>
+  </si>
+  <si>
+    <t>dbicknell@roughridersbaseball.com</t>
+  </si>
+  <si>
+    <t>stevem@tractor-equipment.com</t>
+  </si>
+  <si>
+    <t>cj_finn@yahoo.com</t>
+  </si>
+  <si>
+    <t>mhoward@johnsoneng.com</t>
+  </si>
+  <si>
+    <t>Cell 404/372-2397</t>
+  </si>
+  <si>
+    <t>jamiem@j-dturf.com</t>
+  </si>
+  <si>
+    <t>dcompton@ripatampa.com</t>
+  </si>
+  <si>
+    <t>slspaul@usa.net</t>
+  </si>
+  <si>
+    <t>dwichser@betsylindsayinc.com</t>
+  </si>
+  <si>
+    <t>larry@rapidsurveying.net</t>
+  </si>
+  <si>
+    <t>lalexander@alexandercontractingco.com</t>
+  </si>
+  <si>
+    <t>jmorgan@morganeklund.com</t>
+  </si>
+  <si>
+    <t>chardin@saiia.com</t>
+  </si>
+  <si>
+    <t>mfnues@prince-sdc.com</t>
+  </si>
+  <si>
+    <t>susana@procomexamerica.com</t>
+  </si>
+  <si>
+    <t>khutter@pcl.com</t>
+  </si>
+  <si>
+    <t>eric.banta@apac.com</t>
+  </si>
+  <si>
+    <t>henry_miranda@kellytractor.com</t>
+  </si>
+  <si>
+    <t>jjoyce@wrsie.com</t>
+  </si>
+  <si>
+    <t>justin.jones@andersoncolumbia.com</t>
+  </si>
+  <si>
+    <t>heathhanna@yanceybros.com</t>
+  </si>
+  <si>
+    <t>thochstein@walshgroup.com</t>
+  </si>
+  <si>
+    <t>jheimer@dfifl.com</t>
+  </si>
+  <si>
+    <t>Greg.Hasty@Ringpower.com</t>
+  </si>
+  <si>
+    <t>mphillips@dfifl.com</t>
+  </si>
+  <si>
+    <t>surveyor3447@verizon.net</t>
+  </si>
+  <si>
+    <t>courtsnstuff@yahoo.com</t>
+  </si>
+  <si>
+    <t>TMMalchak@laneconstruct.com</t>
+  </si>
+  <si>
+    <t>ensurv@terranova.net</t>
+  </si>
+  <si>
+    <t>bryan@singletonmarinegroup.com</t>
+  </si>
+  <si>
+    <t>tjdayton@pcl.com</t>
+  </si>
+  <si>
+    <t>Ercmen@aol.com</t>
+  </si>
+  <si>
+    <t>adrivelizc@gmail.com</t>
+  </si>
+  <si>
+    <t>sales@worldclassfootings.com</t>
+  </si>
+  <si>
+    <t>grogers@plateauexcavation.com</t>
+  </si>
+  <si>
+    <t>steve.langley@kiewit.com</t>
+  </si>
+  <si>
+    <t>jfreenay.lsr@hotmail.com</t>
+  </si>
+  <si>
+    <t>jward@allstatepavingfl.com</t>
+  </si>
+  <si>
+    <t>jmeyer@schaefermeyer.com</t>
+  </si>
+  <si>
+    <t>bon@ufl.edu</t>
+  </si>
+  <si>
+    <t>chris.woods@nortrax.com</t>
+  </si>
+  <si>
+    <t>Shawes@nhcgov.com</t>
+  </si>
+  <si>
+    <t>chtaylor@walshgroup.com</t>
+  </si>
+  <si>
+    <t>mar.monreal@ucfl.uig.net</t>
+  </si>
+  <si>
+    <t>cpluskot@evergladesfarmequipment.com</t>
+  </si>
+  <si>
+    <t>iconnon@batson-cook.com</t>
+  </si>
+  <si>
+    <t>wassoci4@tampabay.rr.com</t>
+  </si>
+  <si>
+    <t>derrick.thigpen@grahamcompanies.us</t>
+  </si>
+  <si>
+    <t>arthurj@stpt.usf.edu</t>
+  </si>
+  <si>
+    <t>all-specksinc@msn.com</t>
+  </si>
+  <si>
+    <t>JandBshorthorns@yahoo.com</t>
+  </si>
+  <si>
+    <t>fwaugh@rangerconstruction.com</t>
+  </si>
+  <si>
+    <t>ehsani@UFL.edu</t>
+  </si>
+  <si>
+    <t>david_erkelens@kellytractor.com</t>
+  </si>
+  <si>
+    <t>dozer@indianvalley.com</t>
+  </si>
+  <si>
+    <t>greentech@cytanet.com.cy</t>
+  </si>
+  <si>
+    <t>Jason.Woods@usa.dupont.com</t>
+  </si>
+  <si>
+    <t>reed@rmtequipment.com</t>
+  </si>
+  <si>
+    <t>s_unit444@yahoo.com</t>
+  </si>
+  <si>
+    <t>bmpridmore@laneconstruct.com</t>
+  </si>
+  <si>
+    <t>dolimeminerals@verizon.net</t>
+  </si>
+  <si>
+    <t>rhonda.cason@linderco.com</t>
+  </si>
+  <si>
+    <t>ralphjr@hjcontracting.com</t>
+  </si>
+  <si>
+    <t>dsavoie@atldiversified.com</t>
+  </si>
+  <si>
+    <t>Mobile 561.662.0725</t>
+  </si>
+  <si>
+    <t>jandbtoolinc@bellsouth.net</t>
+  </si>
+  <si>
+    <t>lshuman@mckimcreed.com</t>
+  </si>
+  <si>
+    <t>dylan.mccandless@ringpower.com</t>
+  </si>
+  <si>
+    <t>terriesalter@gmail.com</t>
+  </si>
+  <si>
+    <t>rmackey@williamspaving.com</t>
+  </si>
+  <si>
+    <t>drug@mccoygrading.com</t>
+  </si>
+  <si>
+    <t>phendon@eciconstruction.net</t>
+  </si>
+  <si>
+    <t>steve.linhart@shawgroup.com</t>
+  </si>
+  <si>
+    <t>jmreilly@laneconstruct.com</t>
+  </si>
+  <si>
+    <t>sbrown@rangerconstruction.com</t>
+  </si>
+  <si>
+    <t>marieandbrooke@hotmail.com</t>
+  </si>
+  <si>
+    <t>rhammack@cwrcontracting.com</t>
+  </si>
+  <si>
+    <t>joeydelaurentis@aol.com</t>
+  </si>
+  <si>
+    <t>rherr@ibigroup.com</t>
+  </si>
+  <si>
+    <t>james@dekalbpipeline.com</t>
+  </si>
+  <si>
+    <t>mgsf@earthlink.net</t>
+  </si>
+  <si>
+    <t>rpuig@evergladesfarmequipment.com</t>
+  </si>
+  <si>
+    <t>eci-eelliott@tampabay.rr.com</t>
+  </si>
+  <si>
+    <t>tshook@bellsouth.net</t>
+  </si>
+  <si>
+    <t>rsumner@atldiversified.com</t>
+  </si>
+  <si>
+    <t>paul.colvin@us.atlascopco.com</t>
+  </si>
+  <si>
+    <t>joemartin@ripatampa.com</t>
+  </si>
+  <si>
+    <t>bcapehart@carlocompanies.com</t>
+  </si>
+  <si>
+    <t>dan.klaus@ringpower.com</t>
+  </si>
+  <si>
+    <t>fhccgps@aol.com</t>
+  </si>
+  <si>
+    <t>steve@dseakins.com</t>
+  </si>
+  <si>
+    <t>nickc@jacksonpaving.com</t>
+  </si>
+  <si>
+    <t>jimmymitchell@thompsontractor.com</t>
+  </si>
+  <si>
+    <t>kurt@pushingdirt.com</t>
+  </si>
+  <si>
+    <t>rminichbauer@flaglerce.com</t>
+  </si>
+  <si>
+    <t>efbtrading@gmail.com</t>
+  </si>
+  <si>
+    <t>bradpayne@thompsontractor.com</t>
+  </si>
+  <si>
+    <t>gdurrin@tughillconstruction.com</t>
+  </si>
+  <si>
+    <t>tps@travispruitt.com</t>
+  </si>
+  <si>
+    <t>boz.bowen@puckettrents.com</t>
+  </si>
+  <si>
+    <t>darrinbutler72@hotmail.com</t>
+  </si>
+  <si>
+    <t>kmjohnson@ci.waukesha.wi.us</t>
+  </si>
+  <si>
+    <t>bldicks@se.rr.com</t>
+  </si>
+  <si>
+    <t>lynn@jaxum.com</t>
+  </si>
+  <si>
+    <t>johndsurveyor@yahoo.com</t>
+  </si>
+  <si>
+    <t>joshua@thompsongrading.com</t>
+  </si>
+  <si>
+    <t>adamp@hjcontracting.com</t>
+  </si>
+  <si>
+    <t>amadison@costongc.com</t>
+  </si>
+  <si>
+    <t>brazel@kearneyconstruction.com</t>
+  </si>
+  <si>
+    <t>bobcaldera@wilsonmiller.com</t>
+  </si>
+  <si>
+    <t>bradley.freeman@gawest.com</t>
+  </si>
+  <si>
+    <t>brent@classicgolfconstrution.com</t>
+  </si>
+  <si>
+    <t>chrisdemyers@gmail.com</t>
+  </si>
+  <si>
+    <t>mowone@bellsouth.net</t>
+  </si>
+  <si>
+    <t>michael.clark@gawest.com</t>
+  </si>
+  <si>
+    <t>jroberts@comanco.com</t>
+  </si>
+  <si>
+    <t>mike.hammer@nortrax.com</t>
+  </si>
+  <si>
+    <t>stevanhite@panhandlepaving.com</t>
+  </si>
+  <si>
+    <t>TOMMY.GRAHAM@GRAHAMCOMPANIES.US</t>
+  </si>
+  <si>
+    <t>gwilliams@walshgroup.com</t>
+  </si>
+  <si>
+    <t>debora.cross@L-3Com.com</t>
+  </si>
+  <si>
+    <t>dcline@mckimcreed.com</t>
+  </si>
+  <si>
+    <t>pat@cdlearthmoving.com</t>
+  </si>
+  <si>
+    <t>kmr@johnsoneng.com</t>
+  </si>
+  <si>
+    <t>tony.harvey@fl.usda.gov</t>
+  </si>
+  <si>
+    <t>cabagerencia@gmail.com</t>
+  </si>
+  <si>
+    <t>geomet@tstt.net.tt</t>
+  </si>
+  <si>
+    <t>tschram@kingengineering.com</t>
+  </si>
+  <si>
+    <t>chester.w.sullivan@usace.army.mil.</t>
+  </si>
+  <si>
+    <t>dan@vallencourt.com</t>
+  </si>
+  <si>
+    <t>survey@jr-davis.com</t>
+  </si>
+  <si>
+    <t>tbrennan@geoshack.com</t>
+  </si>
+  <si>
+    <t>gregorimiami@bellsouth.net</t>
+  </si>
+  <si>
+    <t>gc@gc-fl.com</t>
+  </si>
+  <si>
+    <t>spectrumunderground@usa.net</t>
+  </si>
+  <si>
+    <t>doug.morlan@barnard-inc.com</t>
+  </si>
+  <si>
+    <t>jacarstarphen@princeinc.com</t>
+  </si>
+  <si>
+    <t>iraleigh@comprobe.cl</t>
+  </si>
+  <si>
+    <t>sara.sato@dot.fl.us</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,8 +613,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="G233" sqref="G233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -422,38 +970,3237 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
-        <v>1</v>
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8">
-        <v>1</v>
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
+      <c r="B70" s="1">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+      <c r="B71" s="1">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
+      <c r="B76" s="1">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+      <c r="B77" s="1">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="B78" s="1">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>1</v>
+      </c>
+      <c r="B79" s="1">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>1</v>
+      </c>
+      <c r="B80" s="1">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>1</v>
+      </c>
+      <c r="B81" s="1">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>1</v>
+      </c>
+      <c r="B82" s="1">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="B83" s="1">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>1</v>
+      </c>
+      <c r="B85" s="1">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>1</v>
+      </c>
+      <c r="B87" s="1">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>1</v>
+      </c>
+      <c r="B88" s="1">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>1</v>
+      </c>
+      <c r="B89" s="1">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>1</v>
+      </c>
+      <c r="B90" s="1">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>1</v>
+      </c>
+      <c r="B91" s="1">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>1</v>
+      </c>
+      <c r="B93" s="1">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>1</v>
+      </c>
+      <c r="B94" s="1">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>1</v>
+      </c>
+      <c r="B95" s="1">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>1</v>
+      </c>
+      <c r="B96" s="1">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>1</v>
+      </c>
+      <c r="B97" s="1">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>1</v>
+      </c>
+      <c r="B98" s="1">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>1</v>
+      </c>
+      <c r="B99" s="1">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>1</v>
+      </c>
+      <c r="B100" s="1">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>1</v>
+      </c>
+      <c r="B101" s="1">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
+      <c r="B103" s="1">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>1</v>
+      </c>
+      <c r="B104" s="1">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>1</v>
+      </c>
+      <c r="B105" s="1">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>1</v>
+      </c>
+      <c r="B106" s="1">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>1</v>
+      </c>
+      <c r="B107" s="1">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>1</v>
+      </c>
+      <c r="B108" s="1">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>1</v>
+      </c>
+      <c r="B109" s="1">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>1</v>
+      </c>
+      <c r="B110" s="1">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>1</v>
+      </c>
+      <c r="B111" s="1">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>1</v>
+      </c>
+      <c r="B112" s="1">
+        <v>111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>1</v>
+      </c>
+      <c r="B113" s="1">
+        <v>112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>1</v>
+      </c>
+      <c r="B114" s="1">
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>1</v>
+      </c>
+      <c r="B115" s="1">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>1</v>
+      </c>
+      <c r="B116" s="1">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>1</v>
+      </c>
+      <c r="B117" s="1">
+        <v>116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>1</v>
+      </c>
+      <c r="B118" s="1">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>1</v>
+      </c>
+      <c r="B119" s="1">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>1</v>
+      </c>
+      <c r="B120" s="1">
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>1</v>
+      </c>
+      <c r="B121" s="1">
+        <v>120</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>1</v>
+      </c>
+      <c r="B122" s="1">
+        <v>121</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>1</v>
+      </c>
+      <c r="B123" s="1">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>1</v>
+      </c>
+      <c r="B124" s="1">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>1</v>
+      </c>
+      <c r="B125" s="1">
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>1</v>
+      </c>
+      <c r="B126" s="1">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>1</v>
+      </c>
+      <c r="B127" s="1">
+        <v>126</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>1</v>
+      </c>
+      <c r="B128" s="1">
+        <v>127</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>1</v>
+      </c>
+      <c r="B129" s="1">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>1</v>
+      </c>
+      <c r="B130" s="1">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>1</v>
+      </c>
+      <c r="B131" s="1">
+        <v>130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>1</v>
+      </c>
+      <c r="B132" s="1">
+        <v>131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>1</v>
+      </c>
+      <c r="B133" s="1">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>1</v>
+      </c>
+      <c r="B134" s="1">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>1</v>
+      </c>
+      <c r="B135" s="1">
+        <v>134</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>1</v>
+      </c>
+      <c r="B136" s="1">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>1</v>
+      </c>
+      <c r="B137" s="1">
+        <v>136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>1</v>
+      </c>
+      <c r="B138" s="1">
+        <v>137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>1</v>
+      </c>
+      <c r="B139" s="1">
+        <v>138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>1</v>
+      </c>
+      <c r="B140" s="1">
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>1</v>
+      </c>
+      <c r="B141" s="1">
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>1</v>
+      </c>
+      <c r="B142" s="1">
+        <v>141</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>1</v>
+      </c>
+      <c r="B143" s="1">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>1</v>
+      </c>
+      <c r="B144" s="1">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>1</v>
+      </c>
+      <c r="B145" s="1">
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>1</v>
+      </c>
+      <c r="B146" s="1">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>1</v>
+      </c>
+      <c r="B147" s="1">
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>1</v>
+      </c>
+      <c r="B148" s="1">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>1</v>
+      </c>
+      <c r="B149" s="1">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>1</v>
+      </c>
+      <c r="B150" s="1">
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>1</v>
+      </c>
+      <c r="B151" s="1">
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>1</v>
+      </c>
+      <c r="B152" s="1">
+        <v>151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>1</v>
+      </c>
+      <c r="B153" s="1">
+        <v>152</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>1</v>
+      </c>
+      <c r="B154" s="1">
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>1</v>
+      </c>
+      <c r="B155" s="1">
+        <v>154</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>1</v>
+      </c>
+      <c r="B156" s="1">
+        <v>155</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>1</v>
+      </c>
+      <c r="B157" s="1">
+        <v>156</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>1</v>
+      </c>
+      <c r="B158" s="1">
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>1</v>
+      </c>
+      <c r="B159" s="1">
+        <v>158</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>1</v>
+      </c>
+      <c r="B160" s="1">
+        <v>159</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>1</v>
+      </c>
+      <c r="B161" s="1">
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>1</v>
+      </c>
+      <c r="B162" s="1">
+        <v>161</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>1</v>
+      </c>
+      <c r="B163" s="1">
+        <v>162</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>1</v>
+      </c>
+      <c r="B164" s="1">
+        <v>163</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>1</v>
+      </c>
+      <c r="B165" s="1">
+        <v>164</v>
+      </c>
+      <c r="C165" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>1</v>
+      </c>
+      <c r="B166" s="1">
+        <v>165</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>1</v>
+      </c>
+      <c r="B167" s="1">
+        <v>166</v>
+      </c>
+      <c r="C167" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>1</v>
+      </c>
+      <c r="B168" s="1">
+        <v>167</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
+        <v>1</v>
+      </c>
+      <c r="B169" s="1">
+        <v>168</v>
+      </c>
+      <c r="C169" t="s">
+        <v>4</v>
+      </c>
+      <c r="D169" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>1</v>
+      </c>
+      <c r="B170" s="1">
+        <v>169</v>
+      </c>
+      <c r="C170" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>1</v>
+      </c>
+      <c r="B171" s="1">
+        <v>170</v>
+      </c>
+      <c r="C171" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>1</v>
+      </c>
+      <c r="B172" s="1">
+        <v>171</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>1</v>
+      </c>
+      <c r="B173" s="1">
+        <v>172</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>1</v>
+      </c>
+      <c r="B174" s="1">
+        <v>173</v>
+      </c>
+      <c r="C174" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>1</v>
+      </c>
+      <c r="B175" s="1">
+        <v>174</v>
+      </c>
+      <c r="C175" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>1</v>
+      </c>
+      <c r="B176" s="1">
+        <v>175</v>
+      </c>
+      <c r="C176" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>1</v>
+      </c>
+      <c r="B177" s="1">
+        <v>176</v>
+      </c>
+      <c r="C177" t="s">
+        <v>4</v>
+      </c>
+      <c r="D177" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
+        <v>1</v>
+      </c>
+      <c r="B178" s="1">
+        <v>177</v>
+      </c>
+      <c r="C178" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>1</v>
+      </c>
+      <c r="B179" s="1">
+        <v>178</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
+        <v>1</v>
+      </c>
+      <c r="B180" s="1">
+        <v>179</v>
+      </c>
+      <c r="C180" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
+        <v>1</v>
+      </c>
+      <c r="B181" s="1">
+        <v>180</v>
+      </c>
+      <c r="C181" t="s">
+        <v>4</v>
+      </c>
+      <c r="D181" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
+        <v>1</v>
+      </c>
+      <c r="B182" s="1">
+        <v>181</v>
+      </c>
+      <c r="C182" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
+        <v>1</v>
+      </c>
+      <c r="B183" s="1">
+        <v>182</v>
+      </c>
+      <c r="C183" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
+        <v>1</v>
+      </c>
+      <c r="B184" s="1">
+        <v>183</v>
+      </c>
+      <c r="C184" t="s">
+        <v>4</v>
+      </c>
+      <c r="D184" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
+        <v>1</v>
+      </c>
+      <c r="B185" s="1">
+        <v>184</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>1</v>
+      </c>
+      <c r="B186" s="1">
+        <v>185</v>
+      </c>
+      <c r="C186" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>1</v>
+      </c>
+      <c r="B187" s="1">
+        <v>186</v>
+      </c>
+      <c r="C187" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
+        <v>1</v>
+      </c>
+      <c r="B188" s="1">
+        <v>187</v>
+      </c>
+      <c r="C188" t="s">
+        <v>4</v>
+      </c>
+      <c r="D188" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
+        <v>1</v>
+      </c>
+      <c r="B189" s="1">
+        <v>188</v>
+      </c>
+      <c r="C189" t="s">
+        <v>4</v>
+      </c>
+      <c r="D189" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>1</v>
+      </c>
+      <c r="B190" s="1">
+        <v>189</v>
+      </c>
+      <c r="C190" t="s">
+        <v>4</v>
+      </c>
+      <c r="D190" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
+        <v>1</v>
+      </c>
+      <c r="B191" s="1">
+        <v>190</v>
+      </c>
+      <c r="C191" t="s">
+        <v>4</v>
+      </c>
+      <c r="D191" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
+        <v>1</v>
+      </c>
+      <c r="B192" s="1">
+        <v>191</v>
+      </c>
+      <c r="C192" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
+        <v>1</v>
+      </c>
+      <c r="B193" s="1">
+        <v>192</v>
+      </c>
+      <c r="C193" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
+        <v>1</v>
+      </c>
+      <c r="B194" s="1">
+        <v>193</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
+        <v>1</v>
+      </c>
+      <c r="B195" s="1">
+        <v>194</v>
+      </c>
+      <c r="C195" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <v>1</v>
+      </c>
+      <c r="B196" s="1">
+        <v>195</v>
+      </c>
+      <c r="C196" t="s">
+        <v>4</v>
+      </c>
+      <c r="D196" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
+        <v>1</v>
+      </c>
+      <c r="B197" s="1">
+        <v>196</v>
+      </c>
+      <c r="C197" t="s">
+        <v>4</v>
+      </c>
+      <c r="D197" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
+        <v>1</v>
+      </c>
+      <c r="B198" s="1">
+        <v>197</v>
+      </c>
+      <c r="C198" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
+        <v>1</v>
+      </c>
+      <c r="B199" s="1">
+        <v>198</v>
+      </c>
+      <c r="C199" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
+        <v>1</v>
+      </c>
+      <c r="B200" s="1">
+        <v>199</v>
+      </c>
+      <c r="C200" t="s">
+        <v>4</v>
+      </c>
+      <c r="D200" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
+        <v>1</v>
+      </c>
+      <c r="B201" s="1">
+        <v>200</v>
+      </c>
+      <c r="C201" t="s">
+        <v>4</v>
+      </c>
+      <c r="D201" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
+        <v>1</v>
+      </c>
+      <c r="B202" s="1">
+        <v>201</v>
+      </c>
+      <c r="C202" t="s">
+        <v>4</v>
+      </c>
+      <c r="D202" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
+        <v>1</v>
+      </c>
+      <c r="B203" s="1">
+        <v>202</v>
+      </c>
+      <c r="C203" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
+        <v>1</v>
+      </c>
+      <c r="B204" s="1">
+        <v>203</v>
+      </c>
+      <c r="C204" t="s">
+        <v>4</v>
+      </c>
+      <c r="D204" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
+        <v>1</v>
+      </c>
+      <c r="B205" s="1">
+        <v>204</v>
+      </c>
+      <c r="C205" t="s">
+        <v>4</v>
+      </c>
+      <c r="D205" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
+        <v>1</v>
+      </c>
+      <c r="B206" s="1">
+        <v>205</v>
+      </c>
+      <c r="C206" t="s">
+        <v>4</v>
+      </c>
+      <c r="D206" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>1</v>
+      </c>
+      <c r="B207" s="1">
+        <v>206</v>
+      </c>
+      <c r="C207" t="s">
+        <v>4</v>
+      </c>
+      <c r="D207" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
+        <v>1</v>
+      </c>
+      <c r="B208" s="1">
+        <v>207</v>
+      </c>
+      <c r="C208" t="s">
+        <v>4</v>
+      </c>
+      <c r="D208" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
+        <v>1</v>
+      </c>
+      <c r="B209" s="1">
+        <v>208</v>
+      </c>
+      <c r="C209" t="s">
+        <v>4</v>
+      </c>
+      <c r="D209" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
+        <v>1</v>
+      </c>
+      <c r="B210" s="1">
+        <v>209</v>
+      </c>
+      <c r="C210" t="s">
+        <v>4</v>
+      </c>
+      <c r="D210" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
+        <v>1</v>
+      </c>
+      <c r="B211" s="1">
+        <v>210</v>
+      </c>
+      <c r="C211" t="s">
+        <v>4</v>
+      </c>
+      <c r="D211" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
+        <v>1</v>
+      </c>
+      <c r="B212" s="1">
+        <v>211</v>
+      </c>
+      <c r="C212" t="s">
+        <v>4</v>
+      </c>
+      <c r="D212" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
+        <v>1</v>
+      </c>
+      <c r="B213" s="1">
+        <v>212</v>
+      </c>
+      <c r="C213" t="s">
+        <v>4</v>
+      </c>
+      <c r="D213" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
+        <v>1</v>
+      </c>
+      <c r="B214" s="1">
+        <v>213</v>
+      </c>
+      <c r="C214" t="s">
+        <v>4</v>
+      </c>
+      <c r="D214" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
+        <v>1</v>
+      </c>
+      <c r="B215" s="1">
+        <v>214</v>
+      </c>
+      <c r="C215" t="s">
+        <v>4</v>
+      </c>
+      <c r="D215" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
+        <v>1</v>
+      </c>
+      <c r="B216" s="1">
+        <v>215</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
+        <v>1</v>
+      </c>
+      <c r="B217" s="1">
+        <v>216</v>
+      </c>
+      <c r="C217" t="s">
+        <v>4</v>
+      </c>
+      <c r="D217" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
+        <v>1</v>
+      </c>
+      <c r="B218" s="1">
+        <v>217</v>
+      </c>
+      <c r="C218" t="s">
+        <v>4</v>
+      </c>
+      <c r="D218" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
+        <v>1</v>
+      </c>
+      <c r="B219" s="1">
+        <v>218</v>
+      </c>
+      <c r="C219" t="s">
+        <v>4</v>
+      </c>
+      <c r="D219" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
+        <v>1</v>
+      </c>
+      <c r="B220" s="1">
+        <v>219</v>
+      </c>
+      <c r="C220" t="s">
+        <v>4</v>
+      </c>
+      <c r="D220" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
+        <v>1</v>
+      </c>
+      <c r="B221" s="1">
+        <v>220</v>
+      </c>
+      <c r="C221" t="s">
+        <v>4</v>
+      </c>
+      <c r="D221" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
+        <v>1</v>
+      </c>
+      <c r="B222" s="1">
+        <v>221</v>
+      </c>
+      <c r="C222" t="s">
+        <v>4</v>
+      </c>
+      <c r="D222" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
+        <v>1</v>
+      </c>
+      <c r="B223" s="1">
+        <v>222</v>
+      </c>
+      <c r="C223" t="s">
+        <v>4</v>
+      </c>
+      <c r="D223" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
+        <v>1</v>
+      </c>
+      <c r="B224" s="1">
+        <v>223</v>
+      </c>
+      <c r="C224" t="s">
+        <v>4</v>
+      </c>
+      <c r="D224" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>1</v>
+      </c>
+      <c r="B225" s="1">
+        <v>224</v>
+      </c>
+      <c r="C225" t="s">
+        <v>4</v>
+      </c>
+      <c r="D225" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>1</v>
+      </c>
+      <c r="B226" s="1">
+        <v>225</v>
+      </c>
+      <c r="C226" t="s">
+        <v>4</v>
+      </c>
+      <c r="D226" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>1</v>
+      </c>
+      <c r="B227" s="1">
+        <v>226</v>
+      </c>
+      <c r="C227" t="s">
+        <v>4</v>
+      </c>
+      <c r="D227" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>1</v>
+      </c>
+      <c r="B228" s="1">
+        <v>227</v>
+      </c>
+      <c r="C228" t="s">
+        <v>4</v>
+      </c>
+      <c r="D228" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>1</v>
+      </c>
+      <c r="B229" s="1">
+        <v>228</v>
+      </c>
+      <c r="C229" t="s">
+        <v>4</v>
+      </c>
+      <c r="D229" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
+        <v>1</v>
+      </c>
+      <c r="B230" s="1">
+        <v>229</v>
+      </c>
+      <c r="C230" t="s">
+        <v>4</v>
+      </c>
+      <c r="D230" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
+        <v>1</v>
+      </c>
+      <c r="B231" s="1">
+        <v>230</v>
+      </c>
+      <c r="C231" t="s">
+        <v>4</v>
+      </c>
+      <c r="D231" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
+        <v>1</v>
+      </c>
+      <c r="B232" s="1">
+        <v>231</v>
+      </c>
+      <c r="C232" t="s">
+        <v>4</v>
+      </c>
+      <c r="D232" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
